--- a/運行日対応表.xlsx
+++ b/運行日対応表.xlsx
@@ -6,9 +6,9 @@
   </bookViews>
   <sheets>
     <sheet name="運行日対応表" sheetId="1" r:id="rId2"/>
-    <sheet name="1_平日" sheetId="2" r:id="rId3"/>
-    <sheet name="2_日祝" sheetId="3" r:id="rId4"/>
-    <sheet name="4_土曜" sheetId="4" r:id="rId5"/>
+    <sheet name="1_平日" sheetId="2" r:id="rId5"/>
+    <sheet name="2_日祝" sheetId="3" r:id="rId6"/>
+    <sheet name="4_土曜" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -32,6 +32,18 @@
         </d:r>
       </text>
     </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">ツール側で入力する列、
+空欄のままにしてください</t>
+        </d:r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -193,18 +205,6 @@
           </rPr>
           <t xml:space="preserve">関連する路線を出力ファイルから
 除外したい場合は1を立ててください。</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">ツール側で入力する列、
-空欄のままにしてください</t>
         </d:r>
       </text>
     </comment>
